--- a/biology/Microbiologie/Pompholyxophryidae/Pompholyxophryidae.xlsx
+++ b/biology/Microbiologie/Pompholyxophryidae/Pompholyxophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pompholyxophryidae sont une famille d'holomycètes de l'ordre des Rotosphaerida[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pompholyxophryidae sont une famille d'holomycètes de l'ordre des Rotosphaerida.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Pompholyxophryidae a été créée en 1987 par le protozoologiste américain Frederick C. Page (d)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Pompholyxophryidae a été créée en 1987 par le protozoologiste américain Frederick C. Page (d),.
 </t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Taxonomicon  (2 septembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Taxonomicon  (2 septembre 2022) :
 genre Pinaciophora Greeff, 1873
 genre Pompholyxophrys Archer, 1869 - genre type
 genre Rabdiophrys Rainer, 1968
-Mikrujkov, 1999[4] distingue :
+Mikrujkov, 1999 distingue :
 genre Rabdiaster gen. n.
-Nicholls, 2012[5] ajoute :
+Nicholls, 2012 ajoute :
 genre Thomseniophora gen. n.
-que Thomas Cavalier-Smith éclate en deux nouveaux genres : Turriplaca Cavalier-Smith, 2012 et Eiffelospina Cavalier-Smith, 2012[6].
+que Thomas Cavalier-Smith éclate en deux nouveaux genres : Turriplaca Cavalier-Smith, 2012 et Eiffelospina Cavalier-Smith, 2012.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Frederick C. Page, « The Classification of ‘Naked’ Amoebae (Phylum Rhizopoda) », Archiv für Protistenkunde, Elsevier, vol. 133, nos 3-4,‎ janvier 1987, p. 199-217 (ISSN 0003-9365 et 2213-5553, OCLC 4649431785, BNF 37573399, DOI 10.1016/S0003-9365(87)80053-2)</t>
         </is>
